--- a/020-内部設計/023-クラス仕様書/013_商品検索/Servlet/クラス仕様書(MainServlet.java).xlsx
+++ b/020-内部設計/023-クラス仕様書/013_商品検索/Servlet/クラス仕様書(MainServlet.java).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E014961-21DD-41CB-915C-2F395E420413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954C4755-BBFA-4480-9604-CD1D85C61B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2176,16 +2176,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2193,6 +2187,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2745,7 +2745,7 @@
   <dimension ref="A1:IY30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="AG23" sqref="AG23:AZ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6115,8 +6115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:JA58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE20" sqref="AE20:AY20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31243,20 +31243,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
       <c r="M1" s="112" t="s">
         <v>1</v>
       </c>
@@ -31264,64 +31264,64 @@
       <c r="O1" s="112"/>
       <c r="P1" s="112"/>
       <c r="Q1" s="112"/>
-      <c r="R1" s="178" t="str">
+      <c r="R1" s="177" t="str">
         <f>[1]クラス仕様!R1</f>
         <v>商品購入</v>
       </c>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
       <c r="AB1" s="112" t="s">
         <v>2</v>
       </c>
       <c r="AC1" s="112"/>
       <c r="AD1" s="112"/>
-      <c r="AE1" s="178" t="str">
+      <c r="AE1" s="177" t="str">
         <f>[1]クラス仕様!AE1</f>
         <v>商品検索</v>
       </c>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="178"/>
-      <c r="AJ1" s="178"/>
-      <c r="AK1" s="178"/>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
       <c r="AN1" s="112" t="s">
         <v>3</v>
       </c>
       <c r="AO1" s="112"/>
       <c r="AP1" s="112"/>
-      <c r="AQ1" s="178" t="s">
+      <c r="AQ1" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="178"/>
-      <c r="AS1" s="178"/>
-      <c r="AT1" s="178"/>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="178"/>
-      <c r="AX1" s="178"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
+      <c r="AX1" s="177"/>
       <c r="AY1" s="112" t="s">
         <v>4</v>
       </c>
       <c r="AZ1" s="112"/>
       <c r="BA1" s="112"/>
-      <c r="BB1" s="177">
+      <c r="BB1" s="181">
         <v>45911</v>
       </c>
-      <c r="BC1" s="177"/>
-      <c r="BD1" s="177"/>
-      <c r="BE1" s="177"/>
-      <c r="BF1" s="177"/>
-      <c r="BG1" s="177"/>
+      <c r="BC1" s="181"/>
+      <c r="BD1" s="181"/>
+      <c r="BE1" s="181"/>
+      <c r="BF1" s="181"/>
+      <c r="BG1" s="181"/>
       <c r="BH1"/>
       <c r="BI1"/>
       <c r="BJ1"/>
@@ -31521,18 +31521,18 @@
       <c r="IV1"/>
     </row>
     <row r="2" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
       <c r="M2" s="112" t="s">
         <v>5</v>
       </c>
@@ -31540,61 +31540,61 @@
       <c r="O2" s="112"/>
       <c r="P2" s="112"/>
       <c r="Q2" s="112"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="179"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="179"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="176"/>
       <c r="AB2" s="112" t="s">
         <v>6</v>
       </c>
       <c r="AC2" s="112"/>
       <c r="AD2" s="112"/>
-      <c r="AE2" s="178" t="str">
+      <c r="AE2" s="177" t="str">
         <f>[1]クラス仕様!G6</f>
         <v>SearchResultServlet</v>
       </c>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="178"/>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="178"/>
-      <c r="AJ2" s="178"/>
-      <c r="AK2" s="178"/>
-      <c r="AL2" s="178"/>
-      <c r="AM2" s="178"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="177"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="177"/>
+      <c r="AJ2" s="177"/>
+      <c r="AK2" s="177"/>
+      <c r="AL2" s="177"/>
+      <c r="AM2" s="177"/>
       <c r="AN2" s="112" t="s">
         <v>7</v>
       </c>
       <c r="AO2" s="112"/>
       <c r="AP2" s="112"/>
-      <c r="AQ2" s="178" t="s">
+      <c r="AQ2" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="AR2" s="178"/>
-      <c r="AS2" s="178"/>
-      <c r="AT2" s="178"/>
-      <c r="AU2" s="178"/>
-      <c r="AV2" s="178"/>
-      <c r="AW2" s="178"/>
-      <c r="AX2" s="178"/>
+      <c r="AR2" s="177"/>
+      <c r="AS2" s="177"/>
+      <c r="AT2" s="177"/>
+      <c r="AU2" s="177"/>
+      <c r="AV2" s="177"/>
+      <c r="AW2" s="177"/>
+      <c r="AX2" s="177"/>
       <c r="AY2" s="112" t="s">
         <v>8</v>
       </c>
       <c r="AZ2" s="112"/>
       <c r="BA2" s="112"/>
-      <c r="BB2" s="177">
+      <c r="BB2" s="181">
         <v>45924</v>
       </c>
-      <c r="BC2" s="177"/>
-      <c r="BD2" s="177"/>
-      <c r="BE2" s="177"/>
-      <c r="BF2" s="177"/>
-      <c r="BG2" s="177"/>
+      <c r="BC2" s="181"/>
+      <c r="BD2" s="181"/>
+      <c r="BE2" s="181"/>
+      <c r="BF2" s="181"/>
+      <c r="BG2" s="181"/>
       <c r="BH2"/>
       <c r="BI2"/>
       <c r="BJ2"/>
@@ -31802,62 +31802,62 @@
       <c r="D4" s="114"/>
       <c r="E4" s="114"/>
       <c r="F4" s="114"/>
-      <c r="G4" s="180" t="str">
+      <c r="G4" s="178" t="str">
         <f>[1]クラス仕様!AG23</f>
         <v>HTTPからのリクエストの整合性をチェックする。</v>
       </c>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="180"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
-      <c r="X4" s="180"/>
-      <c r="Y4" s="180"/>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="180"/>
-      <c r="AB4" s="180"/>
-      <c r="AC4" s="180"/>
-      <c r="AD4" s="180"/>
-      <c r="AE4" s="180"/>
-      <c r="AF4" s="180"/>
-      <c r="AG4" s="180"/>
-      <c r="AH4" s="180"/>
-      <c r="AI4" s="180"/>
-      <c r="AJ4" s="180"/>
-      <c r="AK4" s="180"/>
-      <c r="AL4" s="180"/>
-      <c r="AM4" s="180"/>
-      <c r="AN4" s="180"/>
-      <c r="AO4" s="180"/>
-      <c r="AP4" s="180"/>
-      <c r="AQ4" s="180"/>
-      <c r="AR4" s="180"/>
-      <c r="AS4" s="180"/>
-      <c r="AT4" s="180"/>
-      <c r="AU4" s="180"/>
-      <c r="AV4" s="180"/>
-      <c r="AW4" s="180"/>
-      <c r="AX4" s="180"/>
-      <c r="AY4" s="180"/>
-      <c r="AZ4" s="180"/>
-      <c r="BA4" s="180"/>
-      <c r="BB4" s="180"/>
-      <c r="BC4" s="180"/>
-      <c r="BD4" s="180"/>
-      <c r="BE4" s="180"/>
-      <c r="BF4" s="180"/>
-      <c r="BG4" s="180"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="178"/>
+      <c r="Y4" s="178"/>
+      <c r="Z4" s="178"/>
+      <c r="AA4" s="178"/>
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="178"/>
+      <c r="AD4" s="178"/>
+      <c r="AE4" s="178"/>
+      <c r="AF4" s="178"/>
+      <c r="AG4" s="178"/>
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="178"/>
+      <c r="AJ4" s="178"/>
+      <c r="AK4" s="178"/>
+      <c r="AL4" s="178"/>
+      <c r="AM4" s="178"/>
+      <c r="AN4" s="178"/>
+      <c r="AO4" s="178"/>
+      <c r="AP4" s="178"/>
+      <c r="AQ4" s="178"/>
+      <c r="AR4" s="178"/>
+      <c r="AS4" s="178"/>
+      <c r="AT4" s="178"/>
+      <c r="AU4" s="178"/>
+      <c r="AV4" s="178"/>
+      <c r="AW4" s="178"/>
+      <c r="AX4" s="178"/>
+      <c r="AY4" s="178"/>
+      <c r="AZ4" s="178"/>
+      <c r="BA4" s="178"/>
+      <c r="BB4" s="178"/>
+      <c r="BC4" s="178"/>
+      <c r="BD4" s="178"/>
+      <c r="BE4" s="178"/>
+      <c r="BF4" s="178"/>
+      <c r="BG4" s="178"/>
       <c r="BH4"/>
       <c r="BI4"/>
       <c r="BJ4"/>
@@ -32065,62 +32065,62 @@
       <c r="D5" s="160"/>
       <c r="E5" s="160"/>
       <c r="F5" s="160"/>
-      <c r="G5" s="181" t="str">
+      <c r="G5" s="179" t="str">
         <f>[1]クラス仕様!K23</f>
         <v>checkParameters</v>
       </c>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="181"/>
-      <c r="Y5" s="181"/>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="181"/>
-      <c r="AF5" s="181"/>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="181"/>
-      <c r="AM5" s="181"/>
-      <c r="AN5" s="181"/>
-      <c r="AO5" s="181"/>
-      <c r="AP5" s="181"/>
-      <c r="AQ5" s="181"/>
-      <c r="AR5" s="181"/>
-      <c r="AS5" s="181"/>
-      <c r="AT5" s="181"/>
-      <c r="AU5" s="181"/>
-      <c r="AV5" s="181"/>
-      <c r="AW5" s="181"/>
-      <c r="AX5" s="181"/>
-      <c r="AY5" s="181"/>
-      <c r="AZ5" s="181"/>
-      <c r="BA5" s="181"/>
-      <c r="BB5" s="181"/>
-      <c r="BC5" s="181"/>
-      <c r="BD5" s="181"/>
-      <c r="BE5" s="181"/>
-      <c r="BF5" s="181"/>
-      <c r="BG5" s="181"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="179"/>
+      <c r="T5" s="179"/>
+      <c r="U5" s="179"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="179"/>
+      <c r="X5" s="179"/>
+      <c r="Y5" s="179"/>
+      <c r="Z5" s="179"/>
+      <c r="AA5" s="179"/>
+      <c r="AB5" s="179"/>
+      <c r="AC5" s="179"/>
+      <c r="AD5" s="179"/>
+      <c r="AE5" s="179"/>
+      <c r="AF5" s="179"/>
+      <c r="AG5" s="179"/>
+      <c r="AH5" s="179"/>
+      <c r="AI5" s="179"/>
+      <c r="AJ5" s="179"/>
+      <c r="AK5" s="179"/>
+      <c r="AL5" s="179"/>
+      <c r="AM5" s="179"/>
+      <c r="AN5" s="179"/>
+      <c r="AO5" s="179"/>
+      <c r="AP5" s="179"/>
+      <c r="AQ5" s="179"/>
+      <c r="AR5" s="179"/>
+      <c r="AS5" s="179"/>
+      <c r="AT5" s="179"/>
+      <c r="AU5" s="179"/>
+      <c r="AV5" s="179"/>
+      <c r="AW5" s="179"/>
+      <c r="AX5" s="179"/>
+      <c r="AY5" s="179"/>
+      <c r="AZ5" s="179"/>
+      <c r="BA5" s="179"/>
+      <c r="BB5" s="179"/>
+      <c r="BC5" s="179"/>
+      <c r="BD5" s="179"/>
+      <c r="BE5" s="179"/>
+      <c r="BF5" s="179"/>
+      <c r="BG5" s="179"/>
       <c r="BH5"/>
       <c r="BI5"/>
       <c r="BJ5"/>
